--- a/data/trans_orig/P14A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B50C571A-4186-4405-AA70-8F838CC15AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DB315E9-10E1-46A5-838B-88823B55F3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0BEFA5FC-19AB-43A7-ACE7-F1FA244FC316}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{91733F31-93CD-4C44-9517-963EFA34CBDA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>96,48%</t>
   </si>
   <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,64 +138,64 @@
     <t>95,78%</t>
   </si>
   <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>97,59%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>1,36%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
     <t>Universitarios</t>
   </si>
   <si>
     <t>84,46%</t>
   </si>
   <si>
-    <t>31,26%</t>
+    <t>44,75%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -207,7 +207,7 @@
     <t>89,92%</t>
   </si>
   <si>
-    <t>56,48%</t>
+    <t>61,45%</t>
   </si>
   <si>
     <t>15,54%</t>
@@ -216,7 +216,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>68,74%</t>
+    <t>55,25%</t>
   </si>
   <si>
     <t>0%</t>
@@ -228,61 +228,61 @@
     <t>10,08%</t>
   </si>
   <si>
-    <t>43,52%</t>
+    <t>38,55%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>96,31%</t>
   </si>
   <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -294,97 +294,97 @@
     <t>99,45%</t>
   </si>
   <si>
-    <t>97,14%</t>
+    <t>97,21%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,86%</t>
+    <t>2,79%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
+    <t>94,0%</t>
+  </si>
+  <si>
     <t>93,53%</t>
   </si>
   <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
+    <t>6,0%</t>
+  </si>
+  <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>69,2%</t>
+    <t>68,28%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -393,13 +393,13 @@
     <t>97,06%</t>
   </si>
   <si>
-    <t>85,08%</t>
+    <t>85,12%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>30,8%</t>
+    <t>31,72%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -408,61 +408,61 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>14,92%</t>
+    <t>14,88%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
 </sst>
 </file>
@@ -874,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FB4D27-850B-4ECA-A6C9-30A823B5D98A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756155AF-7422-4D92-A135-D143C331A62E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1625,7 +1625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20AAD7A-A4CA-40FB-8FEA-A2CB926AC7E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B519D9-D239-4031-B3DD-674E996C669B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1779,13 +1779,13 @@
         <v>338520</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,13 +1800,13 @@
         <v>826</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -1815,13 +1815,13 @@
         <v>6458</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -1830,13 +1830,13 @@
         <v>7284</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,10 +1904,10 @@
         <v>122138</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>53</v>
@@ -1919,13 +1919,13 @@
         <v>80127</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>187</v>
@@ -1934,13 +1934,13 @@
         <v>202265</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1955,13 @@
         <v>1915</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>

--- a/data/trans_orig/P14A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A02-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DB315E9-10E1-46A5-838B-88823B55F3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0647F1E1-F5C4-4037-8AC8-E1BC2409F5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{91733F31-93CD-4C44-9517-963EFA34CBDA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0D67C60-4362-46C7-999C-2350BC081D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="144">
   <si>
     <t>Población que recibe medicación o terapia por diabetes en 2012 (Tasa respuesta: 8,08%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>96,48%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>95,78%</t>
   </si>
   <si>
-    <t>88,52%</t>
+    <t>88,57%</t>
   </si>
   <si>
     <t>98,62%</t>
@@ -147,19 +147,19 @@
     <t>92,54%</t>
   </si>
   <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>94,41%</t>
   </si>
   <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
   </si>
   <si>
     <t>4,22%</t>
@@ -168,25 +168,25 @@
     <t>1,38%</t>
   </si>
   <si>
-    <t>11,48%</t>
+    <t>11,43%</t>
   </si>
   <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,7 +195,7 @@
     <t>84,46%</t>
   </si>
   <si>
-    <t>44,75%</t>
+    <t>45,33%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -207,7 +207,7 @@
     <t>89,92%</t>
   </si>
   <si>
-    <t>61,45%</t>
+    <t>61,82%</t>
   </si>
   <si>
     <t>15,54%</t>
@@ -216,7 +216,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>55,25%</t>
+    <t>54,67%</t>
   </si>
   <si>
     <t>0%</t>
@@ -228,121 +228,127 @@
     <t>10,08%</t>
   </si>
   <si>
-    <t>38,55%</t>
+    <t>38,18%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>92,34%</t>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por diabetes en 2016 (Tasa respuesta: 8,45%)</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por diabetes en 2015 (Tasa respuesta: 8,45%)</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>94,0%</t>
+    <t>94,46%</t>
   </si>
   <si>
     <t>93,53%</t>
   </si>
   <si>
-    <t>85,53%</t>
+    <t>86,35%</t>
   </si>
   <si>
     <t>97,49%</t>
@@ -351,16 +357,16 @@
     <t>96,44%</t>
   </si>
   <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>6,0%</t>
+    <t>5,54%</t>
   </si>
   <si>
     <t>6,47%</t>
@@ -369,22 +375,22 @@
     <t>2,51%</t>
   </si>
   <si>
-    <t>14,47%</t>
+    <t>13,65%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>68,28%</t>
+    <t>73,53%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -393,13 +399,13 @@
     <t>97,06%</t>
   </si>
   <si>
-    <t>85,12%</t>
+    <t>83,76%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>31,72%</t>
+    <t>26,47%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -408,61 +414,61 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>14,88%</t>
+    <t>16,24%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
 </sst>
 </file>
@@ -874,7 +880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756155AF-7422-4D92-A135-D143C331A62E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2C5F5E-410F-491A-A997-4D052B7A8D58}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1625,7 +1631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B519D9-D239-4031-B3DD-674E996C669B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0F9C14-6CB4-4017-9BDD-3192CE3A5111}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1779,13 +1785,13 @@
         <v>338520</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,13 +1806,13 @@
         <v>826</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -1815,13 +1821,13 @@
         <v>6458</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -1830,13 +1836,13 @@
         <v>7284</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,10 +1910,10 @@
         <v>122138</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>53</v>
@@ -1919,13 +1925,13 @@
         <v>80127</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M7" s="7">
         <v>187</v>
@@ -1934,13 +1940,13 @@
         <v>202265</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1961,13 @@
         <v>1915</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -1970,13 +1976,13 @@
         <v>5545</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -1985,13 +1991,13 @@
         <v>7460</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,10 +2065,10 @@
         <v>22673</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>53</v>
@@ -2077,7 +2083,7 @@
         <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2089,10 +2095,10 @@
         <v>37367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>53</v>
@@ -2110,13 +2116,13 @@
         <v>1132</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2131,7 +2137,7 @@
         <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2140,13 +2146,13 @@
         <v>1132</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,13 +2220,13 @@
         <v>292976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>246</v>
@@ -2229,13 +2235,13 @@
         <v>285176</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
         <v>539</v>
@@ -2244,13 +2250,13 @@
         <v>578152</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2271,13 @@
         <v>3873</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -2280,13 +2286,13 @@
         <v>12003</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -2295,13 +2301,13 @@
         <v>15876</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
